--- a/biology/Zoologie/Astaciculture/Astaciculture.xlsx
+++ b/biology/Zoologie/Astaciculture/Astaciculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astaciculture (du latin : Astacus, et « culture ») est l'élevage des écrevisses, généralement à but commercial ou semi-commercial.
 </t>
@@ -511,7 +523,9 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se réalise très souvent dans d'anciennes cressonnières ou gravières, mais peut aussi être pratiquée dans des parcs spécialement aménagés.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces indigènes (France, Belgique)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Astacus astacus L.: l'écrevisse à pattes rouges ou « à pieds rouges ».</t>
         </is>
@@ -574,47 +590,122 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D'Europe
-Austropotamobius pallipes : l'écrevisse à pattes blanches.
-D'Amérique du Nord
-Orconectes limosus Rafinesque (Cambarus affinis Say) : l’écrevisse américaine
+          <t>D'Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Austropotamobius pallipes : l'écrevisse à pattes blanches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astaciculture</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astaciculture</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces importées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D'Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Orconectes limosus Rafinesque (Cambarus affinis Say) : l’écrevisse américaine
 Genre Pacifastacus dont l'espèce Pacifastacus leniusculus : l’écrevisse de Californie, ou écrevisse Signal, écrevisse Pacifique
 Orconectes immunis
 Orconectes juvenilis
 Orconectes virilis
-Sous-genre Procambarus (Ortmannicus) dont l'espèce Procambarus acutus[1]
-D'ailleurs
-Astacus leptodactylus Eschscholtz : l'écrevisse « à pattes grêles », ou écrevisse russe, écrevisse turque
+Sous-genre Procambarus (Ortmannicus) dont l'espèce Procambarus acutus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Astaciculture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astaciculture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces importées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D'ailleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Astacus leptodactylus Eschscholtz : l'écrevisse « à pattes grêles », ou écrevisse russe, écrevisse turque
 Cherax destructor (Australie)
 Cherax quadricarinatus (Australie)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Astaciculture</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Astaciculture</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>la peste de l'écrevisse, attribuée actuellement au champignon Aphanomyces astaci : l'aphanomycose est une épizootie foudroyante ne laissant aucun survivant. Elle s'éteint avec la disparition complète des individus du site contaminé.
 la mycose des œufs, causée par des Saprolegnia.
